--- a/Gestion_de_Cursos/Sistema/condensados_vista_de_visualizacion_de_datos/2024/2-2024/condensado_(version_19).xlsx
+++ b/Gestion_de_Cursos/Sistema/condensados_vista_de_visualizacion_de_datos/2024/2-2024/condensado_(version_19).xlsx
@@ -110,6 +110,9 @@
     <t>4. Jesús Manso Espín</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>Anzures</t>
   </si>
   <si>
@@ -129,9 +132,6 @@
   </si>
   <si>
     <t>Jefatura</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Ascencio</t>
@@ -659,30 +659,30 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -697,30 +697,30 @@
         <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -735,30 +735,30 @@
         <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -811,7 +811,7 @@
         <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -849,12 +849,12 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -887,12 +887,12 @@
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -925,12 +925,12 @@
         <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -963,7 +963,7 @@
         <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -980,7 +980,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -1001,7 +1001,7 @@
         <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1018,7 +1018,7 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -1056,7 +1056,7 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -1077,7 +1077,7 @@
         <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1100,7 +1100,7 @@
         <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
         <v>49</v>
@@ -1115,7 +1115,7 @@
         <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1132,7 +1132,7 @@
         <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
         <v>68</v>
@@ -1153,7 +1153,7 @@
         <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -1170,7 +1170,7 @@
         <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>68</v>
@@ -1191,7 +1191,7 @@
         <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -1208,7 +1208,7 @@
         <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
         <v>68</v>
@@ -1229,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -1246,7 +1246,7 @@
         <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>73</v>
@@ -1267,7 +1267,7 @@
         <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1284,7 @@
         <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>73</v>
@@ -1305,7 +1305,7 @@
         <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -1322,7 +1322,7 @@
         <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>73</v>
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -1381,7 +1381,7 @@
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1404,7 +1404,7 @@
         <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
@@ -1419,7 +1419,7 @@
         <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1436,7 +1436,7 @@
         <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
         <v>68</v>
@@ -1457,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -1474,7 +1474,7 @@
         <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>68</v>
@@ -1495,7 +1495,7 @@
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -1512,7 +1512,7 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
         <v>68</v>
@@ -1533,7 +1533,7 @@
         <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -1553,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
@@ -1571,7 +1571,7 @@
         <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -1609,7 +1609,7 @@
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -1647,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -1664,7 +1664,7 @@
         <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
         <v>73</v>
@@ -1685,7 +1685,7 @@
         <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -1702,7 +1702,7 @@
         <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
         <v>73</v>
@@ -1723,7 +1723,7 @@
         <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -1740,13 +1740,13 @@
         <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
         <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s">
         <v>49</v>
@@ -1761,7 +1761,7 @@
         <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -1778,7 +1778,7 @@
         <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
         <v>105</v>
@@ -1799,7 +1799,7 @@
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -1837,7 +1837,7 @@
         <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -1854,7 +1854,7 @@
         <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
         <v>73</v>
@@ -1875,7 +1875,7 @@
         <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -1913,7 +1913,7 @@
         <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -1951,7 +1951,7 @@
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -1968,7 +1968,7 @@
         <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
         <v>105</v>
@@ -1989,7 +1989,7 @@
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -2012,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H41" t="s">
         <v>25</v>
@@ -2027,7 +2027,7 @@
         <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -2044,7 +2044,7 @@
         <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2065,7 +2065,7 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -2082,13 +2082,13 @@
         <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
@@ -2103,7 +2103,7 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -2123,7 +2123,7 @@
         <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>18</v>
